--- a/output/results/pressure_recovery/pressure_recovery_results.xlsx
+++ b/output/results/pressure_recovery/pressure_recovery_results.xlsx
@@ -477,23 +477,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.15235221129375</v>
+        <v>92.68384352229054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1007696468603699</v>
+        <v>0.1948109766824371</v>
       </c>
       <c r="D2" t="n">
-        <v>4.993639080434827</v>
+        <v>6.145379635466496</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3820589508469032</v>
+        <v>-1.801009197539369</v>
       </c>
       <c r="F2" t="n">
         <v>0.1</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.800813284710004e-05</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -502,22 +500,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.37082223042404</v>
+        <v>67.45481874501533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2413069863497183</v>
+        <v>0.1924854703141397</v>
       </c>
       <c r="D3" t="n">
-        <v>4.784527280597251</v>
+        <v>3.232126927825906</v>
       </c>
       <c r="E3" t="n">
-        <v>3.808101438009308</v>
+        <v>2.175679239431483</v>
       </c>
       <c r="F3" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>7.192960918237561e-05</v>
+        <v>5.048670425581064e-05</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +525,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.47762169406867</v>
+        <v>43.84706822459888</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2929229125148631</v>
+        <v>0.115615050468315</v>
       </c>
       <c r="D4" t="n">
-        <v>3.28371319086608</v>
+        <v>1.146279708159092</v>
       </c>
       <c r="E4" t="n">
-        <v>3.490508843276174</v>
+        <v>0.6219400649103051</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001029323351395128</v>
+        <v>2.065483003422332e-05</v>
       </c>
     </row>
     <row r="5">
@@ -552,21 +550,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.26929348969674</v>
+        <v>87.4477261077901</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2910029012506865</v>
+        <v>0.1044984698666086</v>
       </c>
       <c r="D5" t="n">
-        <v>1.093805162582408</v>
+        <v>1.564508280285919</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.677301636921995</v>
+        <v>4.784709189251886</v>
       </c>
       <c r="F5" t="n">
         <v>0.1</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>3.067837978526885e-05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.57827818919</v>
+        <v>64.19188132005813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2690545945329153</v>
+        <v>0.1830850454369905</v>
       </c>
       <c r="D6" t="n">
-        <v>1.330269556094612</v>
+        <v>9.536664731738101</v>
       </c>
       <c r="E6" t="n">
-        <v>4.725888201412141</v>
+        <v>4.774374597333175</v>
       </c>
       <c r="F6" t="n">
         <v>0.1</v>
       </c>
       <c r="G6" t="n">
-        <v>4.365620251807894e-05</v>
+        <v>0.0001169120120040301</v>
       </c>
     </row>
     <row r="7">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.54042795528714</v>
+        <v>49.5486607391551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1323180344654757</v>
+        <v>0.2055098673937561</v>
       </c>
       <c r="D7" t="n">
-        <v>4.536910090979688</v>
+        <v>1.936144650503721</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5235530992336717</v>
+        <v>-0.9042446651099578</v>
       </c>
       <c r="F7" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>3.143644688789477e-05</v>
+        <v>8.180366948531664e-06</v>
       </c>
     </row>
     <row r="8">
@@ -625,21 +625,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.74590943937037</v>
+        <v>27.14697098739906</v>
       </c>
       <c r="C8" t="n">
-        <v>0.12863606060632</v>
+        <v>0.2097572794313717</v>
       </c>
       <c r="D8" t="n">
-        <v>9.306935492145588</v>
+        <v>6.638186485970289</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.224397038926136</v>
+        <v>2.380754871805637</v>
       </c>
       <c r="F8" t="n">
         <v>0.1</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0.0001228432825910744</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -648,22 +650,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.63524885761148</v>
+        <v>28.73872865798442</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1201720817821376</v>
+        <v>0.1875396454694024</v>
       </c>
       <c r="D9" t="n">
-        <v>4.673500267537228</v>
+        <v>3.141225457244895</v>
       </c>
       <c r="E9" t="n">
-        <v>2.064359785991073</v>
+        <v>2.721043484195201</v>
       </c>
       <c r="F9" t="n">
         <v>0.1</v>
       </c>
       <c r="G9" t="n">
-        <v>8.134337443763693e-05</v>
+        <v>8.147356354181338e-05</v>
       </c>
     </row>
     <row r="10">
@@ -673,22 +675,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.24553988651184</v>
+        <v>44.1047610589949</v>
       </c>
       <c r="C10" t="n">
-        <v>0.21336956319326</v>
+        <v>0.2551134670630295</v>
       </c>
       <c r="D10" t="n">
-        <v>9.025763738936819</v>
+        <v>3.246804222215491</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9095176587316662</v>
+        <v>3.574313842346672</v>
       </c>
       <c r="F10" t="n">
         <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001148883892168487</v>
+        <v>8.646433422425591e-05</v>
       </c>
     </row>
     <row r="11">
@@ -698,22 +700,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.83535761157401</v>
+        <v>91.97835535101071</v>
       </c>
       <c r="C11" t="n">
-        <v>0.230146399694596</v>
+        <v>0.2398954381228286</v>
       </c>
       <c r="D11" t="n">
-        <v>4.697035743822772</v>
+        <v>7.662299750487833</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1926437774031999</v>
+        <v>3.076752321621543</v>
       </c>
       <c r="F11" t="n">
         <v>0.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.594538304446448e-05</v>
+        <v>8.420287559400869e-05</v>
       </c>
     </row>
   </sheetData>

--- a/output/results/pressure_recovery/pressure_recovery_results.xlsx
+++ b/output/results/pressure_recovery/pressure_recovery_results.xlsx
@@ -477,21 +477,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.68384352229054</v>
+        <v>35.47977156947471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1948109766824371</v>
+        <v>0.214186018906245</v>
       </c>
       <c r="D2" t="n">
-        <v>6.145379635466496</v>
+        <v>3.198007313398188</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.801009197539369</v>
+        <v>4.908256941102312</v>
       </c>
       <c r="F2" t="n">
         <v>0.1</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>9.963147983989588e-05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -500,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.45481874501533</v>
+        <v>38.50354809053437</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1924854703141397</v>
+        <v>0.1103535385144087</v>
       </c>
       <c r="D3" t="n">
-        <v>3.232126927825906</v>
+        <v>8.41146270338799</v>
       </c>
       <c r="E3" t="n">
-        <v>2.175679239431483</v>
+        <v>3.012861714098561</v>
       </c>
       <c r="F3" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.048670425581064e-05</v>
+        <v>9.175455446519026e-05</v>
       </c>
     </row>
     <row r="4">
@@ -525,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.84706822459888</v>
+        <v>87.00126985761899</v>
       </c>
       <c r="C4" t="n">
-        <v>0.115615050468315</v>
+        <v>0.2078844216156235</v>
       </c>
       <c r="D4" t="n">
-        <v>1.146279708159092</v>
+        <v>7.571354924040918</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6219400649103051</v>
+        <v>4.125931442533903</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.065483003422332e-05</v>
+        <v>8.983454907884047e-05</v>
       </c>
     </row>
     <row r="5">
@@ -550,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.4477261077901</v>
+        <v>83.66670091480998</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1044984698666086</v>
+        <v>0.1967328393093729</v>
       </c>
       <c r="D5" t="n">
-        <v>1.564508280285919</v>
+        <v>4.998921603630805</v>
       </c>
       <c r="E5" t="n">
-        <v>4.784709189251886</v>
+        <v>3.694607817391221</v>
       </c>
       <c r="F5" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>3.067837978526885e-05</v>
+        <v>6.929819861501816e-05</v>
       </c>
     </row>
     <row r="6">
@@ -575,23 +577,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.19188132005813</v>
+        <v>57.55922807493936</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1830850454369905</v>
+        <v>0.236031542827423</v>
       </c>
       <c r="D6" t="n">
-        <v>9.536664731738101</v>
+        <v>2.994633142914468</v>
       </c>
       <c r="E6" t="n">
-        <v>4.774374597333175</v>
+        <v>-1.818094849856631</v>
       </c>
       <c r="F6" t="n">
         <v>0.1</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.0001169120120040301</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.5486607391551</v>
+        <v>13.59258880289455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2055098673937561</v>
+        <v>0.1974594140662178</v>
       </c>
       <c r="D7" t="n">
-        <v>1.936144650503721</v>
+        <v>8.304780561235734</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9042446651099578</v>
+        <v>1.628464806417188</v>
       </c>
       <c r="F7" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>8.180366948531664e-06</v>
+        <v>0.0001661211819431689</v>
       </c>
     </row>
     <row r="8">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.14697098739906</v>
+        <v>25.74703298991895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2097572794313717</v>
+        <v>0.2275232222525885</v>
       </c>
       <c r="D8" t="n">
-        <v>6.638186485970289</v>
+        <v>7.149764342256065</v>
       </c>
       <c r="E8" t="n">
-        <v>2.380754871805637</v>
+        <v>3.296464609462556</v>
       </c>
       <c r="F8" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001228432825910744</v>
+        <v>0.0001536996113362175</v>
       </c>
     </row>
     <row r="9">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.73872865798442</v>
+        <v>55.18863972267953</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1875396454694024</v>
+        <v>0.1520796330127055</v>
       </c>
       <c r="D9" t="n">
-        <v>3.141225457244895</v>
+        <v>4.467167236381879</v>
       </c>
       <c r="E9" t="n">
-        <v>2.721043484195201</v>
+        <v>1.737000730386787</v>
       </c>
       <c r="F9" t="n">
         <v>0.1</v>
       </c>
       <c r="G9" t="n">
-        <v>8.147356354181338e-05</v>
+        <v>5.414847891144132e-05</v>
       </c>
     </row>
     <row r="10">
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.1047610589949</v>
+        <v>67.99750151566482</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2551134670630295</v>
+        <v>0.1655000430417875</v>
       </c>
       <c r="D10" t="n">
-        <v>3.246804222215491</v>
+        <v>3.970055544465525</v>
       </c>
       <c r="E10" t="n">
-        <v>3.574313842346672</v>
+        <v>-0.1518632039991221</v>
       </c>
       <c r="F10" t="n">
         <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>8.646433422425591e-05</v>
+        <v>2.67058151078829e-05</v>
       </c>
     </row>
     <row r="11">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.97835535101071</v>
+        <v>18.38067398225872</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2398954381228286</v>
+        <v>0.1381669083124362</v>
       </c>
       <c r="D11" t="n">
-        <v>7.662299750487833</v>
+        <v>8.635658677597409</v>
       </c>
       <c r="E11" t="n">
-        <v>3.076752321621543</v>
+        <v>-0.8756704885222466</v>
       </c>
       <c r="F11" t="n">
         <v>0.1</v>
       </c>
       <c r="G11" t="n">
-        <v>8.420287559400869e-05</v>
+        <v>2.650197059181887e-05</v>
       </c>
     </row>
   </sheetData>
